--- a/excel/权限导入.xlsx
+++ b/excel/权限导入.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,133 +28,101 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名称1</t>
+    <t>动作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>路由1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称2</t>
-  </si>
-  <si>
-    <t>路由2</t>
-  </si>
-  <si>
-    <t>描述2</t>
-  </si>
-  <si>
-    <t>名称3</t>
-  </si>
-  <si>
-    <t>路由3</t>
-  </si>
-  <si>
-    <t>描述3</t>
-  </si>
-  <si>
-    <t>名称4</t>
-  </si>
-  <si>
-    <t>路由4</t>
-  </si>
-  <si>
-    <t>描述4</t>
-  </si>
-  <si>
-    <t>名称5</t>
-  </si>
-  <si>
-    <t>路由5</t>
-  </si>
-  <si>
-    <t>描述5</t>
-  </si>
-  <si>
-    <t>名称6</t>
-  </si>
-  <si>
-    <t>路由6</t>
-  </si>
-  <si>
-    <t>描述6</t>
-  </si>
-  <si>
-    <t>名称7</t>
-  </si>
-  <si>
-    <t>路由7</t>
-  </si>
-  <si>
-    <t>描述7</t>
-  </si>
-  <si>
-    <t>名称8</t>
-  </si>
-  <si>
-    <t>路由8</t>
-  </si>
-  <si>
-    <t>描述8</t>
-  </si>
-  <si>
-    <t>名称9</t>
-  </si>
-  <si>
-    <t>路由9</t>
-  </si>
-  <si>
-    <t>描述9</t>
-  </si>
-  <si>
-    <t>名称10</t>
-  </si>
-  <si>
-    <t>路由10</t>
-  </si>
-  <si>
-    <t>描述10</t>
-  </si>
-  <si>
-    <t>名称11</t>
-  </si>
-  <si>
-    <t>路由11</t>
-  </si>
-  <si>
-    <t>描述11</t>
-  </si>
-  <si>
-    <t>名称12</t>
-  </si>
-  <si>
-    <t>路由12</t>
-  </si>
-  <si>
-    <t>描述12</t>
-  </si>
-  <si>
-    <t>名称13</t>
-  </si>
-  <si>
-    <t>路由13</t>
-  </si>
-  <si>
-    <t>描述13</t>
-  </si>
-  <si>
-    <t>名称14</t>
-  </si>
-  <si>
-    <t>路由14</t>
-  </si>
-  <si>
-    <t>描述14</t>
+    <t>/v1/admin/logout</t>
+  </si>
+  <si>
+    <t>退出</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/v1/admin/users</t>
+  </si>
+  <si>
+    <t>用户列表</t>
+  </si>
+  <si>
+    <t>/v1/admin/users/*</t>
+  </si>
+  <si>
+    <t>用户详情</t>
+  </si>
+  <si>
+    <t>创建用户</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>编辑用户</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>删除用户</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>/v1/admin/users/profile</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>/v1/admin/roles</t>
+  </si>
+  <si>
+    <t>角色列表</t>
+  </si>
+  <si>
+    <t>/v1/admin/roles/*</t>
+  </si>
+  <si>
+    <t>角色详情</t>
+  </si>
+  <si>
+    <t>创建角色</t>
+  </si>
+  <si>
+    <t>编辑角色</t>
+  </si>
+  <si>
+    <t>删除角色</t>
+  </si>
+  <si>
+    <t>/v1/admin/permissions</t>
+  </si>
+  <si>
+    <t>权限列表</t>
+  </si>
+  <si>
+    <t>/v1/admin/permissions/*</t>
+  </si>
+  <si>
+    <t>权限详情</t>
+  </si>
+  <si>
+    <t>创建权限</t>
+  </si>
+  <si>
+    <t>/v1/admin/permissions/import</t>
+  </si>
+  <si>
+    <t>导入权限</t>
+  </si>
+  <si>
+    <t>编辑权限</t>
+  </si>
+  <si>
+    <t>删除权限</t>
   </si>
 </sst>
 </file>
@@ -531,7 +499,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -539,24 +507,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.7109375" defaultRowHeight="21.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="1.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21.75" customHeight="1">
+    <row r="1" spans="1:4" ht="21.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -566,30 +533,39 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="21.75" customHeight="1">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="21.75" customHeight="1">
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="21.75" customHeight="1">
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -597,128 +573,220 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A9" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>44</v>
+      <c r="C19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
